--- a/nr-rm-extension-nationality/ig/StructureDefinition-as-dr-practitioner.xlsx
+++ b/nr-rm-extension-nationality/ig/StructureDefinition-as-dr-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T12:07:38+00:00</t>
+    <t>2025-10-08T12:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1871,7 +1871,7 @@
   </si>
   <si>
     <t>Cette ressource est-elle active?
-true  par défaut; false pour  indiquer que la ressource a été supprimés</t>
+true  par défaut; false pour indiquer que la ressource a été supprimée</t>
   </si>
   <si>
     <t>Whether this practitioner's record is in active use.</t>
@@ -4485,7 +4485,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>132</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>225</v>
       </c>
@@ -11727,7 +11727,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
         <v>324</v>
       </c>
@@ -15608,7 +15608,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="90" hidden="true">
+    <row r="90">
       <c r="A90" t="s" s="2">
         <v>371</v>
       </c>
@@ -18556,7 +18556,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="112" hidden="true">
+    <row r="112">
       <c r="A112" t="s" s="2">
         <v>406</v>
       </c>
@@ -19493,7 +19493,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="119" hidden="true">
+    <row r="119">
       <c r="A119" t="s" s="2">
         <v>415</v>
       </c>
@@ -25659,7 +25659,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="165" hidden="true">
+    <row r="165">
       <c r="A165" t="s" s="2">
         <v>496</v>
       </c>
@@ -26878,7 +26878,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="174" hidden="true">
+    <row r="174">
       <c r="A174" t="s" s="2">
         <v>565</v>
       </c>
@@ -29316,7 +29316,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="192" hidden="true">
+    <row r="192">
       <c r="A192" t="s" s="2">
         <v>594</v>
       </c>
@@ -29455,7 +29455,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="193" hidden="true">
+    <row r="193">
       <c r="A193" t="s" s="2">
         <v>602</v>
       </c>
@@ -30267,7 +30267,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="199" hidden="true">
+    <row r="199">
       <c r="A199" t="s" s="2">
         <v>636</v>
       </c>
@@ -30402,7 +30402,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="200" hidden="true">
+    <row r="200">
       <c r="A200" t="s" s="2">
         <v>646</v>
       </c>
@@ -30670,7 +30670,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="202" hidden="true">
+    <row r="202">
       <c r="A202" t="s" s="2">
         <v>665</v>
       </c>
@@ -38708,7 +38708,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="262" hidden="true">
+    <row r="262">
       <c r="A262" t="s" s="2">
         <v>818</v>
       </c>
@@ -39250,7 +39250,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="266" hidden="true">
+    <row r="266">
       <c r="A266" t="s" s="2">
         <v>823</v>
       </c>
@@ -41263,7 +41263,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="281" hidden="true">
+    <row r="281">
       <c r="A281" t="s" s="2">
         <v>900</v>
       </c>
@@ -44743,7 +44743,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="307" hidden="true">
+    <row r="307">
       <c r="A307" t="s" s="2">
         <v>959</v>
       </c>
@@ -44880,7 +44880,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="308" hidden="true">
+    <row r="308">
       <c r="A308" t="s" s="2">
         <v>962</v>
       </c>
@@ -47173,7 +47173,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="325" hidden="true">
+    <row r="325">
       <c r="A325" t="s" s="2">
         <v>1002</v>
       </c>
@@ -47310,7 +47310,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="326" hidden="true">
+    <row r="326">
       <c r="A326" t="s" s="2">
         <v>1007</v>
       </c>
@@ -47584,7 +47584,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="328" hidden="true">
+    <row r="328">
       <c r="A328" t="s" s="2">
         <v>1011</v>
       </c>
@@ -49603,7 +49603,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="343" hidden="true">
+    <row r="343">
       <c r="A343" t="s" s="2">
         <v>1033</v>
       </c>
@@ -49740,7 +49740,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="344" hidden="true">
+    <row r="344">
       <c r="A344" t="s" s="2">
         <v>1038</v>
       </c>
@@ -50822,7 +50822,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="352" hidden="true">
+    <row r="352">
       <c r="A352" t="s" s="2">
         <v>1052</v>
       </c>
@@ -50959,12 +50959,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AU352">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
